--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,9 +20,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="112">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="129">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>屛東縣屏東市水源段二小段08080004地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市水源段二小段08200004地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10950000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10950001地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09570000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段01460000地號</t>
+  </si>
+  <si>
+    <t>屏東縣彳師子鄉草埔段09570002地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09570003地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉丹路段00090000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段08430000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段05940000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段09560000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉草埔段10260000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉新路段02730000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉楓林段06140001</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉楓林段06140000地號</t>
+  </si>
+  <si>
+    <t>屏東縣獅子鄉新路段03880001地號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市勝興段01020003地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>3分之1</t>
+  </si>
+  <si>
+    <t>簡東明</t>
+  </si>
+  <si>
+    <t>戴錦花</t>
+  </si>
+  <si>
+    <t>69年12月01日</t>
+  </si>
+  <si>
+    <t>87年12月14日</t>
+  </si>
+  <si>
+    <t>87年10月05日</t>
+  </si>
+  <si>
+    <t>87年09月25日</t>
+  </si>
+  <si>
+    <t>89年01月13曰</t>
+  </si>
+  <si>
+    <t>89年09月26日</t>
+  </si>
+  <si>
+    <t>89年10月13日</t>
+  </si>
+  <si>
+    <t>91年12月16日</t>
+  </si>
+  <si>
+    <t>90年08月</t>
+  </si>
+  <si>
+    <t>90年08月23日</t>
+  </si>
+  <si>
+    <t>80年04月19日</t>
+  </si>
+  <si>
+    <t>90年12月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>地上權期</t>
+  </si>
+  <si>
+    <t>地上權期間屆滿</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-24</t>
+  </si>
+  <si>
+    <t>tmpfdfe1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,136 +220,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>屛東縣屏東市水源段二小段 0808-0004 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市水源段二小段 0820-0004 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段1095-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段1095-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0957-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0146-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣彳師子鄉草埔段0957-0002 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0957-0003 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉丹路段0009-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0843-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0594-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段0956-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉草埔段1026-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉新路段0273-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉楓林段0614-0001</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉楓林段0614-0000 地號</t>
-  </si>
-  <si>
-    <t>屏東縣獅子鄉新路段0388-0001 地號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市勝興段0102-0003 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>3分之1</t>
-  </si>
-  <si>
-    <t>簡東明</t>
-  </si>
-  <si>
-    <t>戴錦花</t>
-  </si>
-  <si>
-    <t>69年12月 01日</t>
-  </si>
-  <si>
-    <t>87年12月 14日</t>
-  </si>
-  <si>
-    <t>87年10月 05日</t>
-  </si>
-  <si>
-    <t>87年09月 25日</t>
-  </si>
-  <si>
-    <t>89年01月 13曰</t>
-  </si>
-  <si>
-    <t>89年09月 26日</t>
-  </si>
-  <si>
-    <t>89年10月 13日</t>
-  </si>
-  <si>
-    <t>91年12月 16日</t>
-  </si>
-  <si>
-    <t>90年08月</t>
-  </si>
-  <si>
-    <t>90年08月 23日</t>
-  </si>
-  <si>
-    <t>80年04月 19日</t>
-  </si>
-  <si>
-    <t>90年12月 25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>地上權期</t>
-  </si>
-  <si>
-    <t>地上權期 間屆滿</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市水源段01004-000 建號</t>
-  </si>
-  <si>
-    <t>屏東縣屏東市勝興段06888-000 建號</t>
+    <t>屏東縣屏東市水源段01004000建號</t>
+  </si>
+  <si>
+    <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -184,28 +235,28 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>Toyota-carary</t>
-  </si>
-  <si>
-    <t>Toyota-camry</t>
-  </si>
-  <si>
-    <t>Mazda-j14-dna</t>
-  </si>
-  <si>
-    <t>94年11月 01日</t>
-  </si>
-  <si>
-    <t>100 年 08 月20日</t>
-  </si>
-  <si>
-    <t>93年09月 15日</t>
-  </si>
-  <si>
-    <t>1,000,000(超 過五年）</t>
-  </si>
-  <si>
-    <t>1，050，000(超 過五年）</t>
+    <t>Toyotacarary</t>
+  </si>
+  <si>
+    <t>Toyotacamry</t>
+  </si>
+  <si>
+    <t>Mazdaj14dna</t>
+  </si>
+  <si>
+    <t>94年11月01日</t>
+  </si>
+  <si>
+    <t>100年08月20日</t>
+  </si>
+  <si>
+    <t>93年09月15日</t>
+  </si>
+  <si>
+    <t>1000000(超過五年）</t>
+  </si>
+  <si>
+    <t>1050000(超過五年）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -241,16 +292,16 @@
     <t>彰化商業銀行屏東分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行屏東分 行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東園分 行</t>
-  </si>
-  <si>
-    <t>屏東六塊厝郵局(第2 1支 局）</t>
-  </si>
-  <si>
-    <t>屏東縣枋山地區農會信用 部</t>
+    <t>合作金庫商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>屏東六塊厝郵局(第21支局）</t>
+  </si>
+  <si>
+    <t>屏東縣枋山地區農會信用部</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -271,22 +322,22 @@
     <t>有</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項 / 件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣 元）</t>
-  </si>
-  <si>
-    <t>價 額</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>項件</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>價額</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -322,13 +373,13 @@
     <t>富貴保本三福終身</t>
   </si>
   <si>
-    <t>保險期間:91年7月01日至 111年7月1日（20年期）保 險費繳付方式及金額：年繳 2891 元</t>
-  </si>
-  <si>
-    <t>共兩筆保單，被保險人：簡東 明、簡志偉</t>
-  </si>
-  <si>
-    <t>共四筆保單，被保險人：戴錦 花、簡英偉</t>
+    <t>保險期間:91年7月01日至111年7月1日（20年期）保險費繳付方式及金額：年繳2891元</t>
+  </si>
+  <si>
+    <t>共兩筆保單被保險人：簡東明簡志偉</t>
+  </si>
+  <si>
+    <t>共四筆保單被保險人：戴錦花簡英偉</t>
   </si>
   <si>
     <t>債務人</t>
@@ -349,10 +400,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>永豐銀行 屏東縣屏東市復興北路</t>
-  </si>
-  <si>
-    <t>92年07月 01日</t>
+    <t>永豐銀行屏東縣屏東市復興北路</t>
+  </si>
+  <si>
+    <t>92年07月01日</t>
   </si>
   <si>
     <t>購屋</t>
@@ -714,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,473 +793,872 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>510</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>1836</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>2920</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>2973</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2740</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>36330</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>600</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>30406</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O13" s="2">
         <v>25</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>18094</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>6900</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>50169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O16" s="2">
         <v>28</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>128491</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>390</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>108</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1226,25 +1676,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1252,22 +1702,22 @@
         <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>88.14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2">
         <v>680000</v>
@@ -1278,22 +1728,22 @@
         <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2">
         <v>221.46</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2">
         <v>7500000</v>
@@ -1314,22 +1764,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1337,22 +1787,22 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1360,19 +1810,19 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>1030000</v>
@@ -1383,22 +1833,22 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1416,19 +1866,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1436,16 +1886,16 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>1477218</v>
@@ -1456,16 +1906,16 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>1035741</v>
@@ -1476,16 +1926,16 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>15913</v>
@@ -1496,16 +1946,16 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>367026</v>
@@ -1516,16 +1966,16 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>4300</v>
@@ -1536,16 +1986,16 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>432537</v>
@@ -1556,16 +2006,16 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2">
         <v>113470</v>
@@ -1576,16 +2026,16 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2">
         <v>161306</v>
@@ -1596,16 +2046,16 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>519926</v>
@@ -1616,16 +2066,16 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
         <v>242</v>
@@ -1636,16 +2086,16 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2">
         <v>287235</v>
@@ -1656,16 +2106,16 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>29295</v>
@@ -1686,16 +2136,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1703,13 +2153,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1718,16 +2168,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1745,16 +2195,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1762,16 +2212,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1779,16 +2229,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1796,13 +2246,13 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1811,16 +2261,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1828,13 +2278,13 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1843,13 +2293,13 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1868,22 +2318,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1891,22 +2341,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
   <si>
     <t>name</t>
   </si>
@@ -64,7 +64,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>屛東縣屏東市水源段二小段08080004地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>屏東縣屏東市水源段二小段08200004地號</t>
@@ -166,15 +169,15 @@
     <t>90年12月25日</t>
   </si>
   <si>
+    <t>貝賣</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賣</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
     <t>地上權期</t>
   </si>
   <si>
@@ -199,165 +202,105 @@
     <t>tmpfdfe1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>屏東縣屏東市水源段01004000建號</t>
   </si>
   <si>
     <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
+    <t>Toyotacarary</t>
+  </si>
+  <si>
+    <t>94年11月01日</t>
+  </si>
+  <si>
+    <t>1000000(超過五年）</t>
+  </si>
+  <si>
+    <t>Toyotacamry</t>
+  </si>
+  <si>
+    <t>Mazdaj14dna</t>
+  </si>
+  <si>
+    <t>100年08月20日</t>
+  </si>
+  <si>
+    <t>93年09月15日</t>
+  </si>
+  <si>
+    <t>1050000(超過五年）</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>屏東縣枋山地區農會</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>屏東六塊厝郵局(第21支局）</t>
+  </si>
+  <si>
+    <t>屏東縣枋山地區農會信用部</t>
+  </si>
+  <si>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總</t>
+  </si>
+  <si>
+    <t>1額：新臺幣元）</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>項件</t>
   </si>
   <si>
     <t>所有人</t>
   </si>
   <si>
-    <t>Toyotacarary</t>
-  </si>
-  <si>
-    <t>Toyotacamry</t>
-  </si>
-  <si>
-    <t>Mazdaj14dna</t>
-  </si>
-  <si>
-    <t>94年11月01日</t>
-  </si>
-  <si>
-    <t>100年08月20日</t>
-  </si>
-  <si>
-    <t>93年09月15日</t>
-  </si>
-  <si>
-    <t>1000000(超過五年）</t>
-  </si>
-  <si>
-    <t>1050000(超過五年）</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折.合新臺幣總額</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>屏東縣枋山地區農會</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東園分行</t>
-  </si>
-  <si>
-    <t>屏東六塊厝郵局(第21支局）</t>
-  </si>
-  <si>
-    <t>屏東縣枋山地區農會信用部</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>稱</t>
-  </si>
-  <si>
-    <t>所</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
     <t>價額</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
     <t>全福101終身(MF)</t>
   </si>
   <si>
+    <t>保險期間:91年7月01日至111年7月1日（20年期）保險費繳付方式及金額：年繳2891元</t>
+  </si>
+  <si>
     <t>創世紀變額萬能壽險(丙型)</t>
   </si>
   <si>
@@ -373,28 +316,10 @@
     <t>富貴保本三福終身</t>
   </si>
   <si>
-    <t>保險期間:91年7月01日至111年7月1日（20年期）保險費繳付方式及金額：年繳2891元</t>
-  </si>
-  <si>
     <t>共兩筆保單被保險人：簡東明簡志偉</t>
   </si>
   <si>
     <t>共四筆保單被保險人：戴錦花簡英偉</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -765,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,851 +739,912 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>1717</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1020</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>1717</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1020</v>
+        <v>510</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>1717</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1836</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>510</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>1717</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1836</v>
+        <v>2920</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>1717</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2">
+        <v>571</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O6" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2920</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="2">
         <v>1717</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2973</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="2">
-        <v>571</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="2">
         <v>1717</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2973</v>
+        <v>2740</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M9" s="2">
         <v>1717</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2740</v>
+        <v>36330</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M10" s="2">
         <v>1717</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>36330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>600</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2">
-        <v>36330</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2">
         <v>1717</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30406</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="2">
-        <v>600</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <v>1717</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>30406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2">
+        <v>18094</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>30406</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13" s="2">
         <v>1717</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>18094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>18094</v>
+        <v>6900</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" s="2">
         <v>1717</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50169</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2">
-        <v>6900</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L15" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="2">
         <v>1717</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>16723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>128491</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2">
-        <v>50169</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M16" s="2">
         <v>1717</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>42830.3333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>128491</v>
+        <v>390</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M17" s="2">
         <v>1717</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="2">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="2">
-        <v>390</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="L18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" s="2">
         <v>1717</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="P18" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="2">
         <v>108</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M19" s="2">
-        <v>1717</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1676,76 +1662,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="C1" s="1">
+        <v>88.14</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="H1" s="1">
+        <v>680000</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2">
-        <v>88.14</v>
+        <v>221.46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2">
-        <v>221.46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="2">
         <v>7500000</v>
       </c>
     </row>
@@ -1756,7 +1716,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1764,91 +1724,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
-        <v>3000</v>
+        <v>2362</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1030000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
-        <v>2362</v>
+        <v>2967</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1030000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2967</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>78</v>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1858,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1866,258 +1803,238 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>35</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1477218</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
-        <v>1477218</v>
+        <v>1035741</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
-        <v>1035741</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2">
-        <v>15913</v>
+        <v>367026</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2">
-        <v>367026</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2">
-        <v>4300</v>
+        <v>432537</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>72</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2">
-        <v>432537</v>
+        <v>113470</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2">
-        <v>113470</v>
+        <v>161306</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2">
-        <v>161306</v>
+        <v>519926</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2">
-        <v>519926</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
-        <v>242</v>
+        <v>287235</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2">
-        <v>287235</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>77</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="2">
         <v>29295</v>
       </c>
     </row>
@@ -2128,7 +2045,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2136,48 +2053,31 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2195,113 +2095,96 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>118</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>119</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,53 +2193,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1120295</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>屛東縣屏東市水源段二小段08080004地號</t>
+  </si>
+  <si>
     <t>屏東縣屏東市水源段二小段08200004地號</t>
   </si>
   <si>
@@ -169,13 +172,13 @@
     <t>90年12月25日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>貝賣</t>
   </si>
   <si>
     <t>贈與</t>
-  </si>
-  <si>
-    <t>買賣</t>
   </si>
   <si>
     <t>地上權期</t>
@@ -690,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,602 +751,602 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>1717</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1020</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>1717</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
-        <v>1020</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>510</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>1717</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
       </c>
       <c r="Q4" s="2">
-        <v>510</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1836</v>
+        <v>510</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2">
         <v>1717</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>1836</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>2920</v>
+        <v>1836</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2">
         <v>1717</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
       <c r="Q6" s="2">
-        <v>2920</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>571</v>
+        <v>2920</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2">
         <v>1717</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
       </c>
       <c r="Q7" s="2">
-        <v>571</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2973</v>
+        <v>571</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>1717</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="2">
-        <v>2973</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>2740</v>
+        <v>2973</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>1717</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>2740</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>36330</v>
+        <v>2740</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>1717</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>36330</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>600</v>
+        <v>36330</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="2">
         <v>1717</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
       </c>
       <c r="Q11" s="2">
-        <v>600</v>
+        <v>36330</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>30406</v>
+        <v>600</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M12" s="2">
         <v>1717</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
       </c>
       <c r="Q12" s="2">
-        <v>30406</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>18094</v>
+        <v>30406</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>43</v>
@@ -1352,48 +1355,48 @@
         <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2">
         <v>1717</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
       </c>
       <c r="Q13" s="2">
-        <v>18094</v>
+        <v>30406</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>6900</v>
+        <v>18094</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>36</v>
@@ -1402,54 +1405,54 @@
         <v>44</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2">
         <v>1717</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
       </c>
       <c r="Q14" s="2">
-        <v>6900</v>
+        <v>18094</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>50169</v>
+        <v>6900</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>45</v>
@@ -1458,51 +1461,51 @@
         <v>52</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2">
         <v>1717</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="2">
-        <v>16723</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>128491</v>
+        <v>50169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>46</v>
@@ -1511,51 +1514,51 @@
         <v>53</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="2">
         <v>1717</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2">
         <v>0.333333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>42830.3333333333</v>
+        <v>16723</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>390</v>
+        <v>128491</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>47</v>
@@ -1564,86 +1567,139 @@
         <v>54</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M17" s="2">
         <v>1717</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>390</v>
+        <v>42830.3333333333</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M18" s="2">
         <v>1717</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
       </c>
       <c r="Q18" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2">
+        <v>108</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="2">
         <v>108</v>
       </c>
     </row>
@@ -1654,59 +1710,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1">
-        <v>88.14</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1">
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="2">
+        <v>88.14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="2">
+        <v>680000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="2">
+        <v>38</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2">
         <v>221.46</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="2">
         <v>7500000</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>221.46</v>
       </c>
     </row>
   </sheetData>
@@ -1716,7 +1879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1724,68 +1887,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1">
         <v>3000</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2362</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1030000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="2">
-        <v>2967</v>
+        <v>2362</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1030000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2967</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,16 +1989,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1">
         <v>1477218</v>
@@ -1820,221 +2006,241 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2">
-        <v>1035741</v>
+        <v>1477218</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
-        <v>15913</v>
+        <v>1035741</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2">
-        <v>367026</v>
+        <v>15913</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2">
-        <v>4300</v>
+        <v>367026</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="2">
-        <v>432537</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2">
-        <v>113470</v>
+        <v>432537</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2">
-        <v>161306</v>
+        <v>113470</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
-        <v>519926</v>
+        <v>161306</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
-        <v>242</v>
+        <v>519926</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2">
-        <v>287235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2">
+        <v>287235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="D13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2">
         <v>29295</v>
       </c>
     </row>
@@ -2045,7 +2251,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2053,31 +2259,46 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2308,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2095,96 +2316,113 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2193,30 +2431,53 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>121</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="2">
+        <v>1120295</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -211,25 +211,28 @@
     <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>Toyotacarary</t>
   </si>
   <si>
+    <t>Toyotacamry</t>
+  </si>
+  <si>
+    <t>Mazdaj14dna</t>
+  </si>
+  <si>
     <t>94年11月01日</t>
   </si>
   <si>
+    <t>100年08月20日</t>
+  </si>
+  <si>
+    <t>93年09月15日</t>
+  </si>
+  <si>
     <t>1000000(超過五年）</t>
-  </si>
-  <si>
-    <t>Toyotacamry</t>
-  </si>
-  <si>
-    <t>Mazdaj14dna</t>
-  </si>
-  <si>
-    <t>100年08月20日</t>
-  </si>
-  <si>
-    <t>93年09月15日</t>
   </si>
   <si>
     <t>1050000(超過五年）</t>
@@ -1879,38 +1882,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1">
-        <v>3000</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -1919,21 +1943,42 @@
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>70</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1950,13 +1995,34 @@
       <c r="G3" s="2">
         <v>1030000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
@@ -1971,7 +2037,28 @@
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1989,13 +2076,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -2009,13 +2096,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2029,13 +2116,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2049,13 +2136,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2069,13 +2156,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2089,13 +2176,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -2109,13 +2196,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -2129,13 +2216,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -2149,13 +2236,13 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
@@ -2169,13 +2256,13 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -2189,13 +2276,13 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -2209,13 +2296,13 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
@@ -2229,13 +2316,13 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -2259,13 +2346,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2274,13 +2361,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2289,16 +2376,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2316,16 +2403,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2333,16 +2420,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2350,16 +2437,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2367,10 +2454,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -2382,16 +2469,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2399,10 +2486,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -2414,10 +2501,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -2439,22 +2526,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2462,22 +2549,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -211,6 +211,9 @@
     <t>屏東縣屏東市勝興段06888000建號</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -236,6 +239,9 @@
   </si>
   <si>
     <t>1050000(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行</t>
@@ -1795,7 +1801,7 @@
         <v>680000</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>58</v>
@@ -1848,7 +1854,7 @@
         <v>7500000</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>58</v>
@@ -1893,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1934,7 +1940,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>3000</v>
@@ -1943,16 +1949,16 @@
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -1978,7 +1984,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
         <v>2362</v>
@@ -1987,7 +1993,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>50</v>
@@ -1996,7 +2002,7 @@
         <v>1030000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -2022,7 +2028,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>2967</v>
@@ -2031,16 +2037,16 @@
         <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>58</v>
@@ -2076,13 +2082,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -2096,13 +2102,13 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2116,13 +2122,13 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2136,13 +2142,13 @@
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2156,13 +2162,13 @@
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2176,13 +2182,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -2196,13 +2202,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -2216,13 +2222,13 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -2236,13 +2242,13 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
@@ -2256,13 +2262,13 @@
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -2276,13 +2282,13 @@
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -2296,13 +2302,13 @@
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
@@ -2316,13 +2322,13 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
@@ -2346,13 +2352,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2361,13 +2367,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2376,16 +2382,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2403,16 +2409,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2420,16 +2426,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2437,16 +2443,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2454,10 +2460,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -2469,16 +2475,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2486,10 +2492,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -2501,10 +2507,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -2526,22 +2532,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2549,22 +2555,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -244,43 +244,55 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行</t>
   </si>
   <si>
+    <t>臺灣新光商業銀行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行</t>
+  </si>
+  <si>
+    <t>屏東縣枋山地區農會</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>臺灣銀行屏東分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行屏東分行</t>
+  </si>
+  <si>
+    <t>臺灣新光商業銀行東園分行</t>
+  </si>
+  <si>
+    <t>屏東六塊厝郵局(第21支局）</t>
+  </si>
+  <si>
+    <t>屏東縣枋山地區農會信用部</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣新光商業銀行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行</t>
-  </si>
-  <si>
-    <t>屏東縣枋山地區農會</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>臺灣銀行屏東分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行屏東分行</t>
-  </si>
-  <si>
-    <t>臺灣新光商業銀行東園分行</t>
-  </si>
-  <si>
-    <t>屏東六塊厝郵局(第21支局）</t>
-  </si>
-  <si>
-    <t>屏東縣枋山地區農會信用部</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及#</t>
@@ -2074,13 +2086,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>74</v>
       </c>
@@ -2091,24 +2103,45 @@
         <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1477218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>36</v>
@@ -2116,19 +2149,40 @@
       <c r="F2" s="2">
         <v>1477218</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>36</v>
@@ -2136,19 +2190,40 @@
       <c r="F3" s="2">
         <v>1035741</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -2156,19 +2231,40 @@
       <c r="F4" s="2">
         <v>15913</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>36</v>
@@ -2176,19 +2272,40 @@
       <c r="F5" s="2">
         <v>367026</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>36</v>
@@ -2196,19 +2313,40 @@
       <c r="F6" s="2">
         <v>4300</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
@@ -2216,19 +2354,40 @@
       <c r="F7" s="2">
         <v>432537</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M7" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -2236,19 +2395,40 @@
       <c r="F8" s="2">
         <v>113470</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M8" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
@@ -2256,19 +2436,40 @@
       <c r="F9" s="2">
         <v>161306</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>74</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
@@ -2276,19 +2477,40 @@
       <c r="F10" s="2">
         <v>519926</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>75</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
@@ -2296,19 +2518,40 @@
       <c r="F11" s="2">
         <v>242</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
@@ -2316,25 +2559,67 @@
       <c r="F12" s="2">
         <v>287235</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="2">
         <v>29295</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1717</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M13" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2352,13 +2637,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -2367,13 +2652,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -2382,16 +2667,16 @@
         <v>101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2409,16 +2694,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2426,16 +2711,16 @@
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2443,16 +2728,16 @@
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2460,10 +2745,10 @@
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>37</v>
@@ -2475,16 +2760,16 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2492,10 +2777,10 @@
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -2507,10 +2792,10 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -2532,22 +2817,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2555,22 +2840,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -11,16 +11,15 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -293,27 +292,6 @@
   </si>
   <si>
     <t>deposit</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>價額</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -2629,7 +2607,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2643,13 +2621,15 @@
         <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>91</v>
@@ -2658,26 +2638,90 @@
         <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>108</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,129 +2729,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>106</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>108</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>109</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>110</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>111</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2817,22 +2738,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1">
         <v>1120295</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2840,22 +2761,22 @@
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
+++ b/legislator/property/output/normal/簡東明_2012-04-24_財產申報表_tmpfdfe1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="107">
   <si>
     <t>name</t>
   </si>
@@ -294,15 +294,15 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
     <t>全福101終身(MF)</t>
   </si>
   <si>
-    <t>保險期間:91年7月01日至111年7月1日（20年期）保險費繳付方式及金額：年繳2891元</t>
-  </si>
-  <si>
     <t>創世紀變額萬能壽險(丙型)</t>
   </si>
   <si>
@@ -318,10 +318,13 @@
     <t>富貴保本三福終身</t>
   </si>
   <si>
-    <t>共兩筆保單被保險人：簡東明簡志偉</t>
-  </si>
-  <si>
-    <t>共四筆保單被保險人：戴錦花簡英偉</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -334,6 +337,9 @@
   </si>
   <si>
     <t>購屋</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2607,49 +2613,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>106</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>107</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>94</v>
@@ -2660,13 +2702,31 @@
       <c r="E3" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>108</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>95</v>
@@ -2674,14 +2734,34 @@
       <c r="D4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>96</v>
@@ -2690,15 +2770,33 @@
         <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>97</v>
@@ -2706,14 +2804,34 @@
       <c r="D6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -2721,7 +2839,27 @@
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1717</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="2">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2730,53 +2868,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1120295</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>1120295</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1717</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
